--- a/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-10/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766294</v>
+        <v>766296</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429149149</v>
+        <v>1429156227</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187828</v>
+        <v>187830</v>
       </c>
       <c r="D13" t="n">
         <v>33261</v>
       </c>
       <c r="E13" t="n">
-        <v>1164662648</v>
+        <v>1165045094</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -2624,13 +2624,13 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>75188</v>
+        <v>75189</v>
       </c>
       <c r="D54" t="n">
         <v>14914</v>
       </c>
       <c r="E54" t="n">
-        <v>361020401</v>
+        <v>361025801</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
@@ -3239,13 +3239,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>17887</v>
+        <v>17884</v>
       </c>
       <c r="D69" t="n">
         <v>2908</v>
       </c>
       <c r="E69" t="n">
-        <v>103683130</v>
+        <v>103656076</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
@@ -3608,13 +3608,13 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>178437</v>
+        <v>178439</v>
       </c>
       <c r="D78" t="n">
         <v>34685</v>
       </c>
       <c r="E78" t="n">
-        <v>892440235</v>
+        <v>892467990</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71234</v>
+        <v>71246</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110272213</v>
+        <v>110277178</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18837</v>
+        <v>18836</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75052351</v>
+        <v>75024804</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -4223,13 +4223,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>16904</v>
+        <v>16911</v>
       </c>
       <c r="D93" t="n">
         <v>2945</v>
       </c>
       <c r="E93" t="n">
-        <v>50383889</v>
+        <v>50425027</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -4510,13 +4510,13 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>9325</v>
+        <v>9326</v>
       </c>
       <c r="D100" t="n">
         <v>1304</v>
       </c>
       <c r="E100" t="n">
-        <v>23677096</v>
+        <v>23686296</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
@@ -4674,13 +4674,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>319347</v>
+        <v>319348</v>
       </c>
       <c r="D104" t="n">
         <v>67904</v>
       </c>
       <c r="E104" t="n">
-        <v>561263193</v>
+        <v>561269974</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
@@ -5002,13 +5002,13 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>145223</v>
+        <v>145222</v>
       </c>
       <c r="D112" t="n">
         <v>27839</v>
       </c>
       <c r="E112" t="n">
-        <v>715927517</v>
+        <v>715925957</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>81796</v>
+        <v>81797</v>
       </c>
       <c r="D115" t="n">
         <v>14448</v>
       </c>
       <c r="E115" t="n">
-        <v>436220197</v>
+        <v>436221192</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306074</v>
+        <v>1306072</v>
       </c>
       <c r="D121" t="n">
-        <v>220380</v>
+        <v>220381</v>
       </c>
       <c r="E121" t="n">
-        <v>2274479039</v>
+        <v>2274394878</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633253</v>
+        <v>633247</v>
       </c>
       <c r="D129" t="n">
         <v>104964</v>
       </c>
       <c r="E129" t="n">
-        <v>3425087439</v>
+        <v>3425036750</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5740,13 +5740,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>4239</v>
+        <v>4238</v>
       </c>
       <c r="D130" t="n">
         <v>619</v>
       </c>
       <c r="E130" t="n">
-        <v>140274932</v>
+        <v>140270462</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585541</v>
+        <v>585527</v>
       </c>
       <c r="D132" t="n">
         <v>90775</v>
       </c>
       <c r="E132" t="n">
-        <v>3457471774</v>
+        <v>3457024600</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26670</v>
+        <v>26669</v>
       </c>
       <c r="D136" t="n">
-        <v>4273</v>
+        <v>4272</v>
       </c>
       <c r="E136" t="n">
-        <v>143468610</v>
+        <v>143465662</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6109,13 +6109,13 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>76626</v>
+        <v>76627</v>
       </c>
       <c r="D139" t="n">
         <v>17494</v>
       </c>
       <c r="E139" t="n">
-        <v>114123502</v>
+        <v>114124865</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
@@ -6314,13 +6314,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>25034</v>
+        <v>25047</v>
       </c>
       <c r="D144" t="n">
         <v>6170</v>
       </c>
       <c r="E144" t="n">
-        <v>92043375</v>
+        <v>92100271</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39903</v>
+        <v>39911</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60347848</v>
+        <v>60347099</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18422</v>
+        <v>18423</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72341763</v>
+        <v>72343317</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12388</v>
+        <v>12389</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>39959770</v>
+        <v>39983570</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -7134,13 +7134,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>196200</v>
+        <v>196201</v>
       </c>
       <c r="D164" t="n">
         <v>42637</v>
       </c>
       <c r="E164" t="n">
-        <v>370282194</v>
+        <v>370288687</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6936</v>
+        <v>6937</v>
       </c>
       <c r="D177" t="n">
         <v>1158</v>
       </c>
       <c r="E177" t="n">
-        <v>30699319</v>
+        <v>30788203</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>515873</v>
+        <v>515872</v>
       </c>
       <c r="D178" t="n">
         <v>115380</v>
       </c>
       <c r="E178" t="n">
-        <v>891180611</v>
+        <v>891180160</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>236808</v>
+        <v>236810</v>
       </c>
       <c r="D186" t="n">
         <v>46317</v>
       </c>
       <c r="E186" t="n">
-        <v>1189579460</v>
+        <v>1189625057</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>595488</v>
+        <v>595489</v>
       </c>
       <c r="D196" t="n">
         <v>127119</v>
       </c>
       <c r="E196" t="n">
-        <v>983984962</v>
+        <v>983987711</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -9471,13 +9471,13 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>135494</v>
+        <v>135491</v>
       </c>
       <c r="D221" t="n">
-        <v>27176</v>
+        <v>27175</v>
       </c>
       <c r="E221" t="n">
-        <v>681859821</v>
+        <v>681804100</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
@@ -10127,13 +10127,13 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>283300</v>
+        <v>283301</v>
       </c>
       <c r="D237" t="n">
         <v>49796</v>
       </c>
       <c r="E237" t="n">
-        <v>1438267850</v>
+        <v>1438274452</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -10496,13 +10496,13 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>18835</v>
+        <v>18836</v>
       </c>
       <c r="D246" t="n">
         <v>2727</v>
       </c>
       <c r="E246" t="n">
-        <v>71598073</v>
+        <v>71609583</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
